--- a/results/P16 - 16.Si no se dedica quisiera hacerlo en un futuro.xlsx
+++ b/results/P16 - 16.Si no se dedica quisiera hacerlo en un futuro.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diebian\CIPCA\faa-encuestas-03-21\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031B0E6A-7B84-4672-9C0F-F954D4A08049}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.A qué grupo de edad perten" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="4.Municipio donde vive" sheetId="4" r:id="rId4"/>
     <sheet name="5.Vive en el área" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -251,8 +257,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,11 +321,7169 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>16. Si no se dedica ¿quisiera hacerlo en un futuro?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.A qué grupo de edad perten'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.A qué grupo de edad perten'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>+ 50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15 – 28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29 – 39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40 – 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.A qué grupo de edad perten'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19AA-4C24-8736-DB84F7F1AEB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.A qué grupo de edad perten'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sí</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.A qué grupo de edad perten'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>+ 50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15 – 28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29 – 39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40 – 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.A qué grupo de edad perten'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-19AA-4C24-8736-DB84F7F1AEB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.A qué grupo de edad perten'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tal vez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.A qué grupo de edad perten'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>+ 50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15 – 28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29 – 39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40 – 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.A qué grupo de edad perten'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-19AA-4C24-8736-DB84F7F1AEB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1362437200"/>
+        <c:axId val="1362428464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1362437200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362428464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1362428464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362437200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>16. Si no se dedica ¿quisiera hacerlo en un futuro?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.Sexo'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hombre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2.Sexo'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sí</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tal vez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.Sexo'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DC2-4335-9004-79B9BC3C5C10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.Sexo'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mujer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2.Sexo'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sí</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tal vez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.Sexo'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DC2-4335-9004-79B9BC3C5C10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1362468400"/>
+        <c:axId val="1362463408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1362468400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362463408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1362463408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362468400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>16. Si no se dedica ¿quisiera hacerlo en un futuro?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.Departamento donde vive'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.Departamento donde vive'!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Beni</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuquisaca</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cochabamba</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>La Paz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Oruro</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pando</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Potosí</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santa Cruz</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tarija</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.Departamento donde vive'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE19-423F-A114-A33916B03277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.Departamento donde vive'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sí</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.Departamento donde vive'!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Beni</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuquisaca</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cochabamba</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>La Paz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Oruro</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pando</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Potosí</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santa Cruz</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tarija</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.Departamento donde vive'!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE19-423F-A114-A33916B03277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.Departamento donde vive'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tal vez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.Departamento donde vive'!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Beni</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuquisaca</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cochabamba</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>La Paz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Oruro</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pando</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Potosí</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Santa Cruz</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tarija</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.Departamento donde vive'!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE19-423F-A114-A33916B03277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="664722784"/>
+        <c:axId val="664724032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="664722784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664724032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="664724032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664722784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>16. Si no se dedica ¿quisiera hacerlo en un futuro?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.Municipio donde vive'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4.Municipio donde vive'!$B$1:$BF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>Acasio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Anzaldo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ascensión de Guarayos </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ayo Ayo </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Baures</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Calamarca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Camiri</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Caracollo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Cercado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Challapata </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Charazani</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Cobija</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Cochabamba</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Colquencha</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>El Alto</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>El puente</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Gutiérrez</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Huacareta</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>La Guardia</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>La Paz</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Laja</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Llallagua</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Machareti</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Magdalena</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Mecapaca </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Monteagudo</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Oruro</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Pelechuco</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Pocoata</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Pojo</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Porco</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Puerto Acosta</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Puerto Gonzalo Moreno</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Puerto Rico</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Punata</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Quillacollo</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Riberalta</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>San Andrés de Machaca</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>San Borja</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>San Ignacio</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>San Ignacio de Mojos</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>San Ignacio de Velasco</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>San Lorenzo</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Santa Cruz de la Sierra</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sena</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Sucre</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Taraco</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Tarata</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Tarija</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Torotoro</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Totora</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Trinidad</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Uncia</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Urubichá</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Viacha</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Villa Vaca Guzmán </c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Vinto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.Municipio donde vive'!$B$2:$BF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78CE-49F8-A3F7-9CF5472B7A57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.Municipio donde vive'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sí</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4.Municipio donde vive'!$B$1:$BF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>Acasio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Anzaldo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ascensión de Guarayos </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ayo Ayo </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Baures</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Calamarca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Camiri</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Caracollo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Cercado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Challapata </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Charazani</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Cobija</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Cochabamba</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Colquencha</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>El Alto</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>El puente</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Gutiérrez</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Huacareta</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>La Guardia</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>La Paz</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Laja</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Llallagua</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Machareti</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Magdalena</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Mecapaca </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Monteagudo</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Oruro</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Pelechuco</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Pocoata</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Pojo</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Porco</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Puerto Acosta</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Puerto Gonzalo Moreno</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Puerto Rico</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Punata</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Quillacollo</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Riberalta</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>San Andrés de Machaca</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>San Borja</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>San Ignacio</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>San Ignacio de Mojos</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>San Ignacio de Velasco</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>San Lorenzo</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Santa Cruz de la Sierra</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sena</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Sucre</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Taraco</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Tarata</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Tarija</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Torotoro</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Totora</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Trinidad</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Uncia</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Urubichá</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Viacha</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Villa Vaca Guzmán </c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Vinto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.Municipio donde vive'!$B$3:$BF$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78CE-49F8-A3F7-9CF5472B7A57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.Municipio donde vive'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tal vez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4.Municipio donde vive'!$B$1:$BF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>Acasio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Anzaldo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ascensión de Guarayos </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ayo Ayo </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Baures</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Calamarca</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Camiri</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Caracollo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Cercado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Challapata </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Charazani</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Cobija</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Cochabamba</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Colquencha</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>El Alto</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>El puente</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Gutiérrez</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Huacareta</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>La Guardia</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>La Paz</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Laja</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Llallagua</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Machareti</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Magdalena</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Mecapaca </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Monteagudo</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Oruro</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Pelechuco</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Pocoata</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Pojo</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Porco</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Puerto Acosta</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Puerto Gonzalo Moreno</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Puerto Rico</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Punata</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Quillacollo</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Riberalta</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>San Andrés de Machaca</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>San Borja</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>San Ignacio</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>San Ignacio de Mojos</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>San Ignacio de Velasco</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>San Lorenzo</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Santa Cruz de la Sierra</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sena</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Sucre</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Taraco</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Tarata</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Tarija</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Torotoro</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Totora</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Trinidad</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Uncia</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Urubichá</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Viacha</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Villa Vaca Guzmán </c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Vinto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.Municipio donde vive'!$B$4:$BF$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-78CE-49F8-A3F7-9CF5472B7A57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1669064960"/>
+        <c:axId val="1669062880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1669064960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669062880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1669062880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669064960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>16. Si no se dedica ¿quisiera hacerlo en un futuro?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.Vive en el área'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5.Vive en el área'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ambos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rural</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Urbana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.Vive en el área'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C275-4620-BAE9-051EC78091E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.Vive en el área'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sí</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5.Vive en el área'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ambos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rural</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Urbana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.Vive en el área'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C275-4620-BAE9-051EC78091E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.Vive en el área'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tal vez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5.Vive en el área'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ambos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rural</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Urbana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.Vive en el área'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C275-4620-BAE9-051EC78091E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1357983488"/>
+        <c:axId val="1357997216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1357983488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1357997216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1357997216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1357983488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{004D56DF-DEDF-4D92-B426-5B034F934674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF78E9F-2D06-44B2-8F21-FB90D6110ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDA67DB-2611-4932-96BC-C770329FF898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8EEC0A-C97B-4DEB-A504-7065F19420C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D980A597-FD37-4C86-8B27-2F8C2B76262F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -361,7 +7525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,9 +7557,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,6 +7609,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -602,14 +7802,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -629,7 +7831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -649,7 +7851,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -669,7 +7871,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +7891,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,18 +7913,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -736,7 +7941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -750,7 +7955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -764,7 +7969,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -778,7 +7983,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,18 +7999,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="A1:J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,7 +8048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,7 +8083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,7 +8118,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,7 +8153,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -982,18 +8190,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BF4" sqref="A1:BF4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +8383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1351,7 +8562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1530,7 +8741,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1709,7 +8920,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1890,18 +9101,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1918,7 +9132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1935,7 +9149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1952,7 +9166,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1969,7 +9183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1988,5 +9202,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>